--- a/jpcore-r4/feature/swg2-physicalexam/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
+++ b/jpcore-r4/feature/swg2-physicalexam/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="154">
   <si>
     <t>Property</t>
   </si>
@@ -332,7 +332,7 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier
+    <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
@@ -340,12 +340,28 @@
   </si>
   <si>
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
+    <t>valueCoding</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicalFeeScoreType_VS</t>
+  </si>
+  <si>
     <t>Extension.value[x].id</t>
   </si>
   <si>
@@ -365,161 +381,114 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t>Extension.value[x].use</t>
+    <t>Extension.value[x].system</t>
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>点数表番号の名前空間を識別するURIを指定。固定値。</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.100495.20.3.22</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>Extension.value[x].version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>Extension.value[x].code</t>
   </si>
   <si>
     <t xml:space="preserve">code
 </t>
   </si>
   <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>Extension.value[x].type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>点数表コード１桁「1：医科」、「3：歯科」、「4：調剤」、「5：老人保健施設」、「6：訪問看護ステーション」」。</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>Extension.value[x].display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>Extension.value[x].userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
 </t>
   </si>
   <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>Extension.value[x].system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>点数表番号の名前空間を識別するURIを指定。固定値。</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>urn:oid:1.2.392.100495.20.3.22</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>Extension.value[x].value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>点数表コード１桁「1：医科」、「3：歯科」。</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>Extension.value[x].period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>Extension.value[x].assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
   </si>
 </sst>
 </file>
@@ -843,7 +812,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="27.703125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="30.6796875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -853,7 +822,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="46.04296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="44.26171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -866,19 +835,19 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="43.6484375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="61.546875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="19.97265625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="102.6171875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1465,16 +1434,14 @@
         <v>75</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="AB6" s="2"/>
       <c r="AC6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>102</v>
@@ -1489,7 +1456,7 @@
         <v>75</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>101</v>
@@ -1497,9 +1464,11 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="C7" t="s" s="2">
         <v>75</v>
       </c>
@@ -1508,7 +1477,7 @@
         <v>76</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>75</v>
@@ -1520,13 +1489,13 @@
         <v>75</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1553,13 +1522,11 @@
         <v>75</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X7" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X7" s="2"/>
       <c r="Y7" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="Z7" t="s" s="2">
         <v>75</v>
@@ -1577,7 +1544,7 @@
         <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>76</v>
@@ -1589,26 +1556,26 @@
         <v>75</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>88</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>75</v>
@@ -1620,17 +1587,15 @@
         <v>75</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
         <v>75</v>
@@ -1667,31 +1632,31 @@
         <v>75</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="AC8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>88</v>
@@ -1703,39 +1668,37 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>119</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>75</v>
       </c>
@@ -1759,51 +1722,51 @@
         <v>75</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="Z9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="AC9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>124</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1814,7 +1777,7 @@
         <v>76</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>75</v>
@@ -1823,29 +1786,29 @@
         <v>75</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="R10" t="s" s="2">
         <v>75</v>
@@ -1863,13 +1826,13 @@
         <v>75</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="Z10" t="s" s="2">
         <v>75</v>
@@ -1887,7 +1850,7 @@
         <v>75</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>76</v>
@@ -1899,15 +1862,15 @@
         <v>75</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1927,35 +1890,33 @@
         <v>75</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="R11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="T11" t="s" s="2">
         <v>75</v>
@@ -1991,7 +1952,7 @@
         <v>75</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>76</v>
@@ -2003,15 +1964,15 @@
         <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2031,21 +1992,21 @@
         <v>75</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O12" t="s" s="2">
         <v>75</v>
       </c>
@@ -2057,7 +2018,7 @@
         <v>75</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>75</v>
@@ -2093,7 +2054,7 @@
         <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
@@ -2105,15 +2066,15 @@
         <v>75</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2124,7 +2085,7 @@
         <v>76</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>75</v>
@@ -2133,19 +2094,21 @@
         <v>75</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+      <c r="N13" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O13" t="s" s="2">
         <v>75</v>
       </c>
@@ -2193,7 +2156,7 @@
         <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>76</v>
@@ -2205,15 +2168,15 @@
         <v>75</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2224,7 +2187,7 @@
         <v>76</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>75</v>
@@ -2233,21 +2196,23 @@
         <v>75</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O14" t="s" s="2">
         <v>75</v>
       </c>
@@ -2295,7 +2260,7 @@
         <v>75</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>76</v>
@@ -2307,10 +2272,10 @@
         <v>75</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
